--- a/data/trans_dic/IP18A04-Edad-trans_dic.xlsx
+++ b/data/trans_dic/IP18A04-Edad-trans_dic.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N11"/>
+  <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -526,9 +526,6 @@
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="14" customWidth="1" min="11" max="11"/>
-    <col width="14" customWidth="1" min="12" max="12"/>
-    <col width="14" customWidth="1" min="13" max="13"/>
-    <col width="14" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -545,23 +542,20 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
+      <c r="G1" s="3" t="n"/>
       <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
       <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="L1" s="3" t="n"/>
-      <c r="M1" s="3" t="n"/>
-      <c r="N1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -583,47 +577,32 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
-          <t>2023</t>
+          <t>2007</t>
         </is>
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2015</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
           <t>2007</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>2012</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>2015</t>
-        </is>
-      </c>
-      <c r="J2" s="3" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
-      <c r="K2" s="3" t="inlineStr">
-        <is>
-          <t>2007</t>
-        </is>
-      </c>
-      <c r="L2" s="3" t="inlineStr">
-        <is>
-          <t>2012</t>
-        </is>
-      </c>
-      <c r="M2" s="3" t="inlineStr">
-        <is>
-          <t>2015</t>
-        </is>
-      </c>
-      <c r="N2" s="3" t="inlineStr">
-        <is>
-          <t>2023</t>
         </is>
       </c>
     </row>
@@ -639,9 +618,6 @@
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
-      <c r="L3" s="2" t="n"/>
-      <c r="M3" s="2" t="n"/>
-      <c r="N3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -671,47 +647,32 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>41,6%</t>
+          <t>9,76%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>9,76%</t>
+          <t>10,97%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>10,97%</t>
+          <t>10,49%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>10,49%</t>
+          <t>7,6%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>38,1%</t>
+          <t>10,36%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>7,6%</t>
-        </is>
-      </c>
-      <c r="L4" s="2" t="inlineStr">
-        <is>
-          <t>10,36%</t>
-        </is>
-      </c>
-      <c r="M4" s="2" t="inlineStr">
-        <is>
           <t>10,16%</t>
-        </is>
-      </c>
-      <c r="N4" s="2" t="inlineStr">
-        <is>
-          <t>40,02%</t>
         </is>
       </c>
     </row>
@@ -739,54 +700,39 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>29,04; 53,65</t>
+          <t>6,82; 13,65</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>6,82; 13,65</t>
+          <t>7,54; 14,77</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>7,54; 14,77</t>
+          <t>7,4; 14,28</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>7,4; 14,28</t>
+          <t>5,68; 10,0</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>23,28; 53,02</t>
+          <t>8,21; 12,9</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>5,68; 10,0</t>
-        </is>
-      </c>
-      <c r="L5" s="2" t="inlineStr">
-        <is>
-          <t>8,21; 12,9</t>
-        </is>
-      </c>
-      <c r="M5" s="2" t="inlineStr">
-        <is>
           <t>8,04; 12,95</t>
-        </is>
-      </c>
-      <c r="N5" s="2" t="inlineStr">
-        <is>
-          <t>29,67; 48,8</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>10/15</t>
+          <t>5/9</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -796,62 +742,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>14,1%</t>
+          <t>11,86%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>13,75%</t>
+          <t>13,37%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>11,71%</t>
+          <t>8,86%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>45,93%</t>
+          <t>5,57%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>12,25%</t>
+          <t>14,61%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>12,77%</t>
+          <t>7,42%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>10,71%</t>
+          <t>8,85%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>46,37%</t>
+          <t>13,98%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>13,19%</t>
-        </is>
-      </c>
-      <c r="L6" s="2" t="inlineStr">
-        <is>
-          <t>13,28%</t>
-        </is>
-      </c>
-      <c r="M6" s="2" t="inlineStr">
-        <is>
-          <t>11,21%</t>
-        </is>
-      </c>
-      <c r="N6" s="2" t="inlineStr">
-        <is>
-          <t>46,11%</t>
+          <t>8,17%</t>
         </is>
       </c>
     </row>
@@ -864,69 +795,54 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>10,84; 18,21</t>
+          <t>8,8; 15,85</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>10,34; 17,27</t>
+          <t>9,72; 17,5</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>8,37; 15,33</t>
+          <t>6,08; 12,09</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>35,15; 56,77</t>
+          <t>3,44; 9,15</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>9,15; 16,53</t>
+          <t>11,05; 19,33</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>9,83; 16,92</t>
+          <t>4,67; 10,48</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>7,35; 14,25</t>
+          <t>6,66; 11,5</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>32,73; 60,91</t>
+          <t>11,49; 17,16</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>10,86; 16,01</t>
-        </is>
-      </c>
-      <c r="L7" s="2" t="inlineStr">
-        <is>
-          <t>11,02; 16,31</t>
-        </is>
-      </c>
-      <c r="M7" s="2" t="inlineStr">
-        <is>
-          <t>8,92; 14,0</t>
-        </is>
-      </c>
-      <c r="N7" s="2" t="inlineStr">
-        <is>
-          <t>37,37; 55,59</t>
+          <t>6,28; 10,35</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>5/9</t>
+          <t>10/15</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -936,62 +852,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>11,86%</t>
+          <t>14,1%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>13,37%</t>
+          <t>13,75%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>8,86%</t>
+          <t>11,71%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>37,14%</t>
+          <t>12,25%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>5,57%</t>
+          <t>12,77%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>14,61%</t>
+          <t>10,71%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>7,42%</t>
+          <t>13,19%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>47,34%</t>
+          <t>13,28%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>8,85%</t>
-        </is>
-      </c>
-      <c r="L8" s="2" t="inlineStr">
-        <is>
-          <t>13,98%</t>
-        </is>
-      </c>
-      <c r="M8" s="2" t="inlineStr">
-        <is>
-          <t>8,17%</t>
-        </is>
-      </c>
-      <c r="N8" s="2" t="inlineStr">
-        <is>
-          <t>42,0%</t>
+          <t>11,21%</t>
         </is>
       </c>
     </row>
@@ -1004,62 +905,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>8,8; 15,85</t>
+          <t>10,84; 18,21</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>9,72; 17,5</t>
+          <t>10,34; 17,27</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>6,08; 12,09</t>
+          <t>8,37; 15,33</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>24,14; 51,74</t>
+          <t>9,15; 16,53</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>3,44; 9,15</t>
+          <t>9,83; 16,92</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>11,05; 19,33</t>
+          <t>7,35; 14,25</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>4,67; 10,48</t>
+          <t>10,86; 16,01</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>34,3; 61,18</t>
+          <t>11,02; 16,31</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>6,66; 11,5</t>
-        </is>
-      </c>
-      <c r="L9" s="2" t="inlineStr">
-        <is>
-          <t>11,49; 17,16</t>
-        </is>
-      </c>
-      <c r="M9" s="2" t="inlineStr">
-        <is>
-          <t>6,28; 10,35</t>
-        </is>
-      </c>
-      <c r="N9" s="2" t="inlineStr">
-        <is>
-          <t>31,72; 51,3</t>
+          <t>8,92; 14,0</t>
         </is>
       </c>
     </row>
@@ -1091,47 +977,32 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>42,33%</t>
+          <t>9,39%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>9,39%</t>
+          <t>12,78%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>12,78%</t>
+          <t>9,55%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>9,55%</t>
+          <t>10,02%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>44,83%</t>
+          <t>12,55%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>10,02%</t>
-        </is>
-      </c>
-      <c r="L10" s="2" t="inlineStr">
-        <is>
-          <t>12,55%</t>
-        </is>
-      </c>
-      <c r="M10" s="2" t="inlineStr">
-        <is>
           <t>9,88%</t>
-        </is>
-      </c>
-      <c r="N10" s="2" t="inlineStr">
-        <is>
-          <t>43,43%</t>
         </is>
       </c>
     </row>
@@ -1159,60 +1030,45 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>34,86; 50,17</t>
+          <t>7,62; 11,61</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>7,62; 11,61</t>
+          <t>10,85; 15,08</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>10,85; 15,08</t>
+          <t>7,76; 11,62</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>7,76; 11,62</t>
+          <t>8,81; 11,48</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>36,73; 53,6</t>
+          <t>11,04; 14,1</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>8,81; 11,48</t>
-        </is>
-      </c>
-      <c r="L11" s="2" t="inlineStr">
-        <is>
-          <t>11,04; 14,1</t>
-        </is>
-      </c>
-      <c r="M11" s="2" t="inlineStr">
-        <is>
           <t>8,7; 11,34</t>
-        </is>
-      </c>
-      <c r="N11" s="2" t="inlineStr">
-        <is>
-          <t>37,79; 49,2</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="8">
+    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A4:A5"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="G1:J1"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="K1:N1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/trans_dic/IP18A04-Edad-trans_dic.xlsx
+++ b/data/trans_dic/IP18A04-Edad-trans_dic.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K11"/>
+  <dimension ref="A1:K14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -622,7 +622,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>0/4</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -632,47 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>5,46%</t>
+          <t>8,48%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>9,79%</t>
+          <t>12,44%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>9,84%</t>
+          <t>9,54%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>9,76%</t>
+          <t>10,22%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>10,97%</t>
+          <t>9,63%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>10,49%</t>
+          <t>8,66%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>7,6%</t>
+          <t>9,33%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>10,36%</t>
+          <t>11,04%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>10,16%</t>
+          <t>9,09%</t>
         </is>
       </c>
     </row>
@@ -685,54 +685,54 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>3,41; 8,79</t>
+          <t>4,86; 13,92</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>7,03; 13,39</t>
+          <t>8,1; 17,42</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>7,0; 13,99</t>
+          <t>5,86; 14,3</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>6,82; 13,65</t>
+          <t>6,32; 16,16</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>7,54; 14,77</t>
+          <t>5,99; 14,47</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>7,4; 14,28</t>
+          <t>5,47; 12,97</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>5,68; 10,0</t>
+          <t>6,41; 12,84</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>8,21; 12,9</t>
+          <t>8,13; 14,21</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>8,04; 12,95</t>
+          <t>6,31; 12,46</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>5/9</t>
+          <t>3-7</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -742,47 +742,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>11,86%</t>
+          <t>7,56%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>13,37%</t>
+          <t>9,45%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>8,86%</t>
+          <t>9,93%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>5,57%</t>
+          <t>6,87%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>14,61%</t>
+          <t>13,35%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>7,42%</t>
+          <t>10,21%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>8,85%</t>
+          <t>7,22%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>13,98%</t>
+          <t>11,26%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>8,17%</t>
+          <t>10,06%</t>
         </is>
       </c>
     </row>
@@ -795,54 +795,54 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>8,8; 15,85</t>
+          <t>5,32; 10,66</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>9,72; 17,5</t>
+          <t>6,75; 12,75</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>6,08; 12,09</t>
+          <t>7,03; 13,53</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>3,44; 9,15</t>
+          <t>4,62; 10,2</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>11,05; 19,33</t>
+          <t>9,68; 17,29</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>4,67; 10,48</t>
+          <t>7,39; 14,37</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>6,66; 11,5</t>
+          <t>5,44; 9,51</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>11,49; 17,16</t>
+          <t>9,05; 13,98</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>6,28; 10,35</t>
+          <t>7,95; 12,62</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/15</t>
+          <t>8-11</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -852,47 +852,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>14,1%</t>
+          <t>11,91%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>13,75%</t>
+          <t>13,88%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>11,71%</t>
+          <t>11,53%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>12,25%</t>
+          <t>10,72%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>12,77%</t>
+          <t>15,17%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>10,71%</t>
+          <t>8,55%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>13,19%</t>
+          <t>11,34%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>13,28%</t>
+          <t>14,52%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>11,21%</t>
+          <t>10,04%</t>
         </is>
       </c>
     </row>
@@ -905,54 +905,54 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>10,84; 18,21</t>
+          <t>7,91; 17,66</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>10,34; 17,27</t>
+          <t>9,51; 19,22</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>8,37; 15,33</t>
+          <t>7,82; 16,23</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>9,15; 16,53</t>
+          <t>6,2; 16,43</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>9,83; 16,92</t>
+          <t>10,58; 19,91</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>7,35; 14,25</t>
+          <t>5,37; 12,32</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>10,86; 16,01</t>
+          <t>8,37; 14,99</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>11,02; 16,31</t>
+          <t>11,7; 18,21</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>8,92; 14,0</t>
+          <t>7,68; 12,87</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>12-15</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -962,47 +962,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>10,62%</t>
+          <t>15,37%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>12,33%</t>
+          <t>15,28%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>10,19%</t>
+          <t>9,56%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>9,39%</t>
+          <t>11,64%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>12,78%</t>
+          <t>12,55%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>9,55%</t>
+          <t>10,58%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>10,02%</t>
+          <t>13,56%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>12,55%</t>
+          <t>13,97%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>9,88%</t>
+          <t>10,08%</t>
         </is>
       </c>
     </row>
@@ -1015,54 +1015,172 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>8,9; 12,76</t>
+          <t>11,23; 20,16</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>10,27; 14,49</t>
+          <t>11,45; 21,03</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>8,32; 12,21</t>
+          <t>5,96; 14,62</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>7,62; 11,61</t>
+          <t>7,9; 16,34</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>10,85; 15,08</t>
+          <t>8,67; 17,73</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>7,76; 11,62</t>
+          <t>6,68; 15,31</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>8,81; 11,48</t>
+          <t>10,54; 16,71</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>11,04; 14,1</t>
+          <t>10,88; 17,24</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>8,7; 11,34</t>
+          <t>7,45; 13,32</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>10,62%</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>12,33%</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>10,19%</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>9,39%</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>12,78%</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>9,55%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>10,02%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>12,55%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>9,88%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>8,73; 12,6</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>10,5; 14,58</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>8,53; 12,32</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>7,46; 11,4</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>10,82; 14,97</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>7,96; 11,65</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>8,63; 11,39</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>11,22; 14,18</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>8,57; 11,27</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="F1:H1"/>
     <mergeCell ref="I1:K1"/>

--- a/data/trans_dic/IP18A04-Edad-trans_dic.xlsx
+++ b/data/trans_dic/IP18A04-Edad-trans_dic.xlsx
@@ -572,7 +572,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -587,7 +587,7 @@
       </c>
       <c r="H2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="I2" s="3" t="inlineStr">
@@ -602,7 +602,7 @@
       </c>
       <c r="K2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
     </row>
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>4,86; 13,92</t>
+          <t>4,73; 13,57</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>8,1; 17,42</t>
+          <t>8,2; 17,13</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>5,86; 14,3</t>
+          <t>5,83; 14,78</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>6,32; 16,16</t>
+          <t>5,75; 15,32</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>5,99; 14,47</t>
+          <t>6,03; 14,27</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>5,47; 12,97</t>
+          <t>5,13; 13,13</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>6,41; 12,84</t>
+          <t>6,48; 12,72</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>8,13; 14,21</t>
+          <t>8,34; 14,41</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>6,31; 12,46</t>
+          <t>6,35; 12,09</t>
         </is>
       </c>
     </row>
@@ -795,47 +795,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>5,32; 10,66</t>
+          <t>5,24; 11,07</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>6,75; 12,75</t>
+          <t>6,7; 12,75</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>7,03; 13,53</t>
+          <t>7,02; 13,11</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>4,62; 10,2</t>
+          <t>4,68; 10,52</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>9,68; 17,29</t>
+          <t>10,01; 17,87</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>7,39; 14,37</t>
+          <t>7,25; 14,22</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>5,44; 9,51</t>
+          <t>5,45; 9,5</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>9,05; 13,98</t>
+          <t>9,08; 13,74</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>7,95; 12,62</t>
+          <t>7,92; 12,56</t>
         </is>
       </c>
     </row>
@@ -905,47 +905,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>7,91; 17,66</t>
+          <t>7,58; 17,18</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>9,51; 19,22</t>
+          <t>9,71; 19,38</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>7,82; 16,23</t>
+          <t>7,74; 16,34</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>6,2; 16,43</t>
+          <t>6,47; 15,94</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>10,58; 19,91</t>
+          <t>10,71; 20,4</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>5,37; 12,32</t>
+          <t>5,68; 12,67</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>8,37; 14,99</t>
+          <t>8,42; 14,98</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>11,7; 18,21</t>
+          <t>11,71; 18,49</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>7,68; 12,87</t>
+          <t>7,7; 13,11</t>
         </is>
       </c>
     </row>
@@ -1015,47 +1015,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>11,23; 20,16</t>
+          <t>10,93; 20,29</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>11,45; 21,03</t>
+          <t>11,14; 20,22</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>5,96; 14,62</t>
+          <t>6,07; 14,48</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>7,9; 16,34</t>
+          <t>7,59; 15,94</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>8,67; 17,73</t>
+          <t>8,57; 17,98</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>6,68; 15,31</t>
+          <t>6,97; 15,74</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>10,54; 16,71</t>
+          <t>10,76; 16,85</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>10,88; 17,24</t>
+          <t>10,97; 17,53</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>7,45; 13,32</t>
+          <t>7,47; 13,25</t>
         </is>
       </c>
     </row>
@@ -1125,47 +1125,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>8,73; 12,6</t>
+          <t>8,88; 13,01</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>10,5; 14,58</t>
+          <t>10,32; 14,25</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>8,53; 12,32</t>
+          <t>8,49; 12,22</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>7,46; 11,4</t>
+          <t>7,67; 11,49</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>10,82; 14,97</t>
+          <t>10,65; 15,12</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>7,96; 11,65</t>
+          <t>7,96; 11,59</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>8,63; 11,39</t>
+          <t>8,68; 11,46</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>11,22; 14,18</t>
+          <t>11,05; 14,14</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>8,57; 11,27</t>
+          <t>8,59; 11,29</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/IP18A04-Edad-trans_dic.xlsx
+++ b/data/trans_dic/IP18A04-Edad-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -537,14 +537,14 @@
       <c r="B1" s="2" t="n"/>
       <c r="C1" s="3" t="inlineStr">
         <is>
-          <t>Hombre</t>
+          <t>Niña</t>
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="inlineStr">
         <is>
-          <t>Mujer</t>
+          <t>Niño</t>
         </is>
       </c>
       <c r="G1" s="3" t="n"/>
@@ -632,32 +632,32 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
+          <t>10,22%</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>9,63%</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>8,66%</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
           <t>8,48%</t>
         </is>
       </c>
-      <c r="D4" s="2" t="inlineStr">
+      <c r="G4" s="2" t="inlineStr">
         <is>
           <t>12,44%</t>
         </is>
       </c>
-      <c r="E4" s="2" t="inlineStr">
+      <c r="H4" s="2" t="inlineStr">
         <is>
           <t>9,54%</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>10,22%</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>9,63%</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>8,66%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>4,73; 13,57</t>
+          <t>6,36; 15,5</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>8,2; 17,13</t>
+          <t>6,09; 14,07</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>5,83; 14,78</t>
+          <t>5,47; 13,19</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>5,75; 15,32</t>
+          <t>4,93; 13,37</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>6,03; 14,27</t>
+          <t>8,53; 17,3</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>5,13; 13,13</t>
+          <t>5,85; 15,03</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>6,48; 12,72</t>
+          <t>6,52; 13,3</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>8,34; 14,41</t>
+          <t>8,35; 14,6</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>6,35; 12,09</t>
+          <t>6,49; 12,32</t>
         </is>
       </c>
     </row>
@@ -742,32 +742,32 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
+          <t>6,87%</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>13,35%</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>10,21%</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
           <t>7,56%</t>
         </is>
       </c>
-      <c r="D6" s="2" t="inlineStr">
+      <c r="G6" s="2" t="inlineStr">
         <is>
           <t>9,45%</t>
         </is>
       </c>
-      <c r="E6" s="2" t="inlineStr">
+      <c r="H6" s="2" t="inlineStr">
         <is>
           <t>9,93%</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>6,87%</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>13,35%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>10,21%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
@@ -795,47 +795,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>5,24; 11,07</t>
+          <t>4,4; 9,91</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>6,7; 12,75</t>
+          <t>9,92; 17,32</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>7,02; 13,11</t>
+          <t>7,37; 14,31</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>4,68; 10,52</t>
+          <t>5,36; 11,18</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>10,01; 17,87</t>
+          <t>6,53; 12,63</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>7,25; 14,22</t>
+          <t>6,93; 13,29</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>5,45; 9,5</t>
+          <t>5,52; 9,28</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>9,08; 13,74</t>
+          <t>9,04; 13,96</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>7,92; 12,56</t>
+          <t>7,96; 12,49</t>
         </is>
       </c>
     </row>
@@ -852,32 +852,32 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
+          <t>10,72%</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>15,17%</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>8,55%</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
           <t>11,91%</t>
         </is>
       </c>
-      <c r="D8" s="2" t="inlineStr">
+      <c r="G8" s="2" t="inlineStr">
         <is>
           <t>13,88%</t>
         </is>
       </c>
-      <c r="E8" s="2" t="inlineStr">
+      <c r="H8" s="2" t="inlineStr">
         <is>
           <t>11,53%</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>10,72%</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>15,17%</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>8,55%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
@@ -905,47 +905,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>7,58; 17,18</t>
+          <t>6,4; 16,21</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>9,71; 19,38</t>
+          <t>11,02; 20,85</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>7,74; 16,34</t>
+          <t>5,4; 12,72</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>6,47; 15,94</t>
+          <t>7,95; 17,01</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>10,71; 20,4</t>
+          <t>9,68; 19,18</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>5,68; 12,67</t>
+          <t>7,84; 16,29</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>8,42; 14,98</t>
+          <t>7,94; 14,95</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>11,71; 18,49</t>
+          <t>11,51; 18,18</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>7,7; 13,11</t>
+          <t>7,39; 12,98</t>
         </is>
       </c>
     </row>
@@ -962,32 +962,32 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
+          <t>11,64%</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>12,55%</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>10,58%</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
           <t>15,37%</t>
         </is>
       </c>
-      <c r="D10" s="2" t="inlineStr">
+      <c r="G10" s="2" t="inlineStr">
         <is>
           <t>15,28%</t>
         </is>
       </c>
-      <c r="E10" s="2" t="inlineStr">
+      <c r="H10" s="2" t="inlineStr">
         <is>
           <t>9,56%</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>11,64%</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>12,55%</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>10,58%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
@@ -1015,47 +1015,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>10,93; 20,29</t>
+          <t>8,12; 16,26</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>11,14; 20,22</t>
+          <t>8,64; 18,22</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>6,07; 14,48</t>
+          <t>6,54; 15,27</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>7,59; 15,94</t>
+          <t>11,28; 20,54</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>8,57; 17,98</t>
+          <t>10,96; 20,9</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>6,97; 15,74</t>
+          <t>6,11; 14,66</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>10,76; 16,85</t>
+          <t>10,79; 16,58</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>10,97; 17,53</t>
+          <t>10,97; 17,55</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>7,47; 13,25</t>
+          <t>7,42; 13,39</t>
         </is>
       </c>
     </row>
@@ -1072,32 +1072,32 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
+          <t>9,39%</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>12,78%</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>9,55%</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
           <t>10,62%</t>
         </is>
       </c>
-      <c r="D12" s="2" t="inlineStr">
+      <c r="G12" s="2" t="inlineStr">
         <is>
           <t>12,33%</t>
         </is>
       </c>
-      <c r="E12" s="2" t="inlineStr">
+      <c r="H12" s="2" t="inlineStr">
         <is>
           <t>10,19%</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>9,39%</t>
-        </is>
-      </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>12,78%</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>9,55%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
@@ -1125,47 +1125,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>8,88; 13,01</t>
+          <t>7,62; 11,61</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>10,32; 14,25</t>
+          <t>10,85; 15,08</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>8,49; 12,22</t>
+          <t>7,76; 11,62</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>7,67; 11,49</t>
+          <t>8,9; 12,76</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>10,65; 15,12</t>
+          <t>10,27; 14,49</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>7,96; 11,59</t>
+          <t>8,32; 12,21</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>8,68; 11,46</t>
+          <t>8,81; 11,48</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>11,05; 14,14</t>
+          <t>11,04; 14,1</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>8,59; 11,29</t>
+          <t>8,7; 11,34</t>
         </is>
       </c>
     </row>
